--- a/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
@@ -1,61 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="1.炼焦日报表（班日、月）" sheetId="1" r:id="rId1"/>
     <sheet name="_lianjaorb_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_kjjunzhi_day_shift" sheetId="3" r:id="rId3"/>
     <sheet name="_causek_day_shift" sheetId="4" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年炼热工作业区</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月生产统计表</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>6#焦炉</t>
   </si>
@@ -85,7 +48,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">6# </t>
     </r>
@@ -93,6 +56,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炉</t>
@@ -103,7 +67,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>7#</t>
     </r>
@@ -111,6 +75,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炉</t>
@@ -125,6 +90,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>影响</t>
@@ -134,7 +100,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>K1</t>
     </r>
@@ -143,6 +109,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>原因（大类）</t>
@@ -157,6 +124,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>影响</t>
@@ -166,7 +134,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>K2</t>
     </r>
@@ -175,6 +143,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>原因（大类）</t>
@@ -236,7 +205,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>K</t>
     </r>
@@ -244,6 +213,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>安</t>
@@ -260,7 +230,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>K</t>
     </r>
@@ -268,6 +238,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>均</t>
@@ -450,20 +421,20 @@
   <si>
     <t>k2KReason</t>
   </si>
+  <si>
+    <t>炼热工作业区生产统计表</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,47 +446,54 @@
       <sz val="12"/>
       <color rgb="FF9876AA"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF6A8759"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -523,194 +501,62 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,194 +569,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -949,15 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1067,252 +718,19 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1334,168 +752,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 5" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1506,7 +889,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1520,7 +903,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -1712,7 +1095,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1758,7 +1141,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1804,7 +1187,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1850,7 +1233,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -2138,19 +1521,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5:AN7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="3" customWidth="1"/>
@@ -2159,238 +1542,246 @@
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="21" spans="1:34">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="48">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
     </row>
-    <row r="2" s="3" customFormat="1" ht="25.5" customHeight="1" spans="1:40">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27" t="s">
+      <c r="Y2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Z2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="AA2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="35" t="s">
+      <c r="AB2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AC2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="24" t="s">
+      <c r="AF2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AG2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AI2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12" t="s">
+      <c r="AM2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AN2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="40" t="s">
+    </row>
+    <row r="3" spans="1:40" ht="36" x14ac:dyDescent="0.15">
+      <c r="A3" s="31"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="45"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="36" spans="1:40">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK3" s="14" t="s">
+    <row r="4" spans="1:40" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="42"/>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="56.25" spans="1:40">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="4" t="e">
         <f t="shared" ref="E4:E7" si="0">(C4*K4+D4*L4)/10^6</f>
         <v>#VALUE!</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="H4" s="4" t="e">
         <f t="shared" ref="H4:H7" si="1">(F4*K4+G4*L4)/10^6</f>
@@ -2404,11 +1795,11 @@
         <f t="shared" ref="J4:J7" si="3">D4+G4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>47</v>
       </c>
       <c r="M4" s="4" t="e">
         <f t="shared" ref="M4:M7" si="4">(E4+H4)/AH4*1000-31*(AL4-7)</f>
@@ -2423,666 +1814,662 @@
         <v>#VALUE!</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="S4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="T4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="34" t="s">
+      <c r="W4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="X4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="37" t="s">
+      <c r="Z4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AB4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="38" t="s">
+      <c r="AF4" s="24" t="e">
+        <f>AE4*AD4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF4" s="34" t="e">
-        <f>AE4*AD4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AN4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AN4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B5" s="14" t="s">
         <v>71</v>
       </c>
+      <c r="C5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!A2="","",_lianjaorb_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!B2="","",_lianjaorb_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="E5" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!C2="","",_lianjaorb_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="G5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!D2="","",_lianjaorb_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="H5" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="15" t="str">
+        <f>IF(_kjjunzhi_day_shift!A2="","",_kjjunzhi_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="L5" s="15" t="str">
+        <f>IF(_kjjunzhi_day_shift!B2="","",_kjjunzhi_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="M5" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O5" s="15" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!E2="","",_lianjaorb_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!F2="","",_lianjaorb_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="R5" s="15" t="str">
+        <f>IF(_causek_day_shift!A2="","",_causek_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="S5" s="15" t="str">
+        <f>IF(_causek_day_shift!B2="","",_causek_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="T5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!G2="","",_lianjaorb_day_shift!G2)</f>
+        <v/>
+      </c>
+      <c r="U5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!H2="","",_lianjaorb_day_shift!H2)</f>
+        <v/>
+      </c>
+      <c r="V5" s="15" t="str">
+        <f>IF(_causek_day_shift!C2="","",_causek_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="W5" s="15" t="str">
+        <f>IF(_causek_day_shift!D2="","",_causek_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="X5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!I2="","",_lianjaorb_day_shift!I2)</f>
+        <v/>
+      </c>
+      <c r="Y5" s="15" t="str">
+        <f>IF(_causek_day_shift!E2="","",_causek_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="Z5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!J2="","",_lianjaorb_day_shift!J2)</f>
+        <v/>
+      </c>
+      <c r="AA5" s="15" t="str">
+        <f>IF(_causek_day_shift!F2="","",_causek_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="AB5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!K2="","",_lianjaorb_day_shift!K2)</f>
+        <v/>
+      </c>
+      <c r="AC5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!L2="","",_lianjaorb_day_shift!L2)</f>
+        <v/>
+      </c>
+      <c r="AD5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!M2="","",_lianjaorb_day_shift!M2)</f>
+        <v/>
+      </c>
+      <c r="AE5" s="15" t="str">
+        <f>IF(_kjjunzhi_day_shift!C2="","",_kjjunzhi_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!N2="","",_lianjaorb_day_shift!N2)</f>
+        <v/>
+      </c>
+      <c r="AH5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!O2="","",_lianjaorb_day_shift!O2)</f>
+        <v/>
+      </c>
+      <c r="AI5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!P2="","",_lianjaorb_day_shift!P2)</f>
+        <v/>
+      </c>
+      <c r="AJ5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!Q2="","",_lianjaorb_day_shift!Q2)</f>
+        <v/>
+      </c>
+      <c r="AK5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!R2="","",_lianjaorb_day_shift!R2)</f>
+        <v/>
+      </c>
+      <c r="AL5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!S2="","",_lianjaorb_day_shift!S2)</f>
+        <v/>
+      </c>
+      <c r="AM5" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!T2="","",_lianjaorb_day_shift!T2)</f>
+        <v/>
+      </c>
+      <c r="AN5" s="27" t="str">
+        <f>IF(_lianjaorb_day_shift!U2="","",_lianjaorb_day_shift!U2)</f>
+        <v/>
+      </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:40">
-      <c r="A5" s="8"/>
-      <c r="B5" s="17" t="s">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!A2="","",_lianjaorb_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="D5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!B2="","",_lianjaorb_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="E5" s="18" t="e">
+      <c r="C6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!A3="","",_lianjaorb_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!B3="","",_lianjaorb_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="E6" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!C2="","",_lianjaorb_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="G5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!D2="","",_lianjaorb_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="H5" s="18" t="e">
+      <c r="F6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!C3="","",_lianjaorb_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="G6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!D3="","",_lianjaorb_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="H6" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="18" t="e">
+      <c r="I6" s="15" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="18" t="e">
+      <c r="J6" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="18" t="str">
-        <f>IF(_kjjunzhi_day_shift!A2="","",_kjjunzhi_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="L5" s="18" t="str">
-        <f>IF(_kjjunzhi_day_shift!B2="","",_kjjunzhi_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="M5" s="18" t="e">
+      <c r="K6" s="15" t="str">
+        <f>IF(_kjjunzhi_day_shift!A3="","",_kjjunzhi_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="L6" s="15" t="str">
+        <f>IF(_kjjunzhi_day_shift!B3="","",_kjjunzhi_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="M6" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="18" t="e">
+      <c r="N6" s="15" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="18" t="e">
+      <c r="O6" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!E2="","",_lianjaorb_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="Q5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!F2="","",_lianjaorb_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="R5" s="18" t="str">
-        <f>IF(_causek_day_shift!A2="","",_causek_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="S5" s="18" t="str">
-        <f>IF(_causek_day_shift!B2="","",_causek_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="T5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!G2="","",_lianjaorb_day_shift!G2)</f>
-        <v/>
-      </c>
-      <c r="U5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!H2="","",_lianjaorb_day_shift!H2)</f>
-        <v/>
-      </c>
-      <c r="V5" s="18" t="str">
-        <f>IF(_causek_day_shift!C2="","",_causek_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="W5" s="18" t="str">
-        <f>IF(_causek_day_shift!D2="","",_causek_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="X5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!I2="","",_lianjaorb_day_shift!I2)</f>
-        <v/>
-      </c>
-      <c r="Y5" s="18" t="str">
-        <f>IF(_causek_day_shift!E2="","",_causek_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="Z5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!J2="","",_lianjaorb_day_shift!J2)</f>
-        <v/>
-      </c>
-      <c r="AA5" s="18" t="str">
-        <f>IF(_causek_day_shift!F2="","",_causek_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="AB5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!K2="","",_lianjaorb_day_shift!K2)</f>
-        <v/>
-      </c>
-      <c r="AC5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!L2="","",_lianjaorb_day_shift!L2)</f>
-        <v/>
-      </c>
-      <c r="AD5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!M2="","",_lianjaorb_day_shift!M2)</f>
-        <v/>
-      </c>
-      <c r="AE5" s="18" t="str">
-        <f>IF(_kjjunzhi_day_shift!C2="","",_kjjunzhi_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!N2="","",_lianjaorb_day_shift!N2)</f>
-        <v/>
-      </c>
-      <c r="AH5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!O2="","",_lianjaorb_day_shift!O2)</f>
-        <v/>
-      </c>
-      <c r="AI5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!P2="","",_lianjaorb_day_shift!P2)</f>
-        <v/>
-      </c>
-      <c r="AJ5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!Q2="","",_lianjaorb_day_shift!Q2)</f>
-        <v/>
-      </c>
-      <c r="AK5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!R2="","",_lianjaorb_day_shift!R2)</f>
-        <v/>
-      </c>
-      <c r="AL5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!S2="","",_lianjaorb_day_shift!S2)</f>
-        <v/>
-      </c>
-      <c r="AM5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!T2="","",_lianjaorb_day_shift!T2)</f>
-        <v/>
-      </c>
-      <c r="AN5" s="43" t="str">
-        <f>IF(_lianjaorb_day_shift!U2="","",_lianjaorb_day_shift!U2)</f>
+      <c r="P6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!E3="","",_lianjaorb_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!F3="","",_lianjaorb_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="R6" s="15" t="str">
+        <f>IF(_causek_day_shift!A3="","",_causek_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="S6" s="15" t="str">
+        <f>IF(_causek_day_shift!B3="","",_causek_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="T6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!G3="","",_lianjaorb_day_shift!G3)</f>
+        <v/>
+      </c>
+      <c r="U6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!H3="","",_lianjaorb_day_shift!H3)</f>
+        <v/>
+      </c>
+      <c r="V6" s="15" t="str">
+        <f>IF(_causek_day_shift!C3="","",_causek_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="W6" s="15" t="str">
+        <f>IF(_causek_day_shift!D3="","",_causek_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="X6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!I3="","",_lianjaorb_day_shift!I3)</f>
+        <v/>
+      </c>
+      <c r="Y6" s="15" t="str">
+        <f>IF(_causek_day_shift!E3="","",_causek_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="Z6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!J3="","",_lianjaorb_day_shift!J3)</f>
+        <v/>
+      </c>
+      <c r="AA6" s="15" t="str">
+        <f>IF(_causek_day_shift!F3="","",_causek_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="AB6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!K3="","",_lianjaorb_day_shift!K3)</f>
+        <v/>
+      </c>
+      <c r="AC6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!L3="","",_lianjaorb_day_shift!L3)</f>
+        <v/>
+      </c>
+      <c r="AD6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!M3="","",_lianjaorb_day_shift!M3)</f>
+        <v/>
+      </c>
+      <c r="AE6" s="15" t="str">
+        <f>IF(_kjjunzhi_day_shift!C3="","",_kjjunzhi_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!N3="","",_lianjaorb_day_shift!N3)</f>
+        <v/>
+      </c>
+      <c r="AH6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!O3="","",_lianjaorb_day_shift!O3)</f>
+        <v/>
+      </c>
+      <c r="AI6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!P3="","",_lianjaorb_day_shift!P3)</f>
+        <v/>
+      </c>
+      <c r="AJ6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!Q3="","",_lianjaorb_day_shift!Q3)</f>
+        <v/>
+      </c>
+      <c r="AK6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!R3="","",_lianjaorb_day_shift!R3)</f>
+        <v/>
+      </c>
+      <c r="AL6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!S3="","",_lianjaorb_day_shift!S3)</f>
+        <v/>
+      </c>
+      <c r="AM6" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!T3="","",_lianjaorb_day_shift!T3)</f>
+        <v/>
+      </c>
+      <c r="AN6" s="27" t="str">
+        <f>IF(_lianjaorb_day_shift!U3="","",_lianjaorb_day_shift!U3)</f>
         <v/>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:40">
-      <c r="A6" s="8"/>
-      <c r="B6" s="17" t="s">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!A3="","",_lianjaorb_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="D6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!B3="","",_lianjaorb_day_shift!B3)</f>
-        <v/>
-      </c>
-      <c r="E6" s="18" t="e">
+      <c r="C7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!A4="","",_lianjaorb_day_shift!A4)</f>
+        <v/>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!B4="","",_lianjaorb_day_shift!B4)</f>
+        <v/>
+      </c>
+      <c r="E7" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!C3="","",_lianjaorb_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="G6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!D3="","",_lianjaorb_day_shift!D3)</f>
-        <v/>
-      </c>
-      <c r="H6" s="18" t="e">
+      <c r="F7" s="16" t="str">
+        <f>IF(_lianjaorb_day_shift!C4="","",_lianjaorb_day_shift!C4)</f>
+        <v/>
+      </c>
+      <c r="G7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!D4="","",_lianjaorb_day_shift!D4)</f>
+        <v/>
+      </c>
+      <c r="H7" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="18" t="e">
+      <c r="I7" s="15" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="18" t="e">
+      <c r="J7" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="18" t="str">
-        <f>IF(_kjjunzhi_day_shift!A3="","",_kjjunzhi_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="L6" s="18" t="str">
-        <f>IF(_kjjunzhi_day_shift!B3="","",_kjjunzhi_day_shift!B3)</f>
-        <v/>
-      </c>
-      <c r="M6" s="18" t="e">
+      <c r="K7" s="15" t="str">
+        <f>IF(_kjjunzhi_day_shift!A4="","",_kjjunzhi_day_shift!A4)</f>
+        <v/>
+      </c>
+      <c r="L7" s="15" t="str">
+        <f>IF(_kjjunzhi_day_shift!B4="","",_kjjunzhi_day_shift!B4)</f>
+        <v/>
+      </c>
+      <c r="M7" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N6" s="18" t="e">
+      <c r="N7" s="15" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O6" s="18" t="e">
+      <c r="O7" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!E3="","",_lianjaorb_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="Q6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!F3="","",_lianjaorb_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="R6" s="18" t="str">
-        <f>IF(_causek_day_shift!A3="","",_causek_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="S6" s="18" t="str">
-        <f>IF(_causek_day_shift!B3="","",_causek_day_shift!B3)</f>
-        <v/>
-      </c>
-      <c r="T6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!G3="","",_lianjaorb_day_shift!G3)</f>
-        <v/>
-      </c>
-      <c r="U6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!H3="","",_lianjaorb_day_shift!H3)</f>
-        <v/>
-      </c>
-      <c r="V6" s="18" t="str">
-        <f>IF(_causek_day_shift!C3="","",_causek_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="W6" s="18" t="str">
-        <f>IF(_causek_day_shift!D3="","",_causek_day_shift!D3)</f>
-        <v/>
-      </c>
-      <c r="X6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!I3="","",_lianjaorb_day_shift!I3)</f>
-        <v/>
-      </c>
-      <c r="Y6" s="18" t="str">
-        <f>IF(_causek_day_shift!E3="","",_causek_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="Z6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!J3="","",_lianjaorb_day_shift!J3)</f>
-        <v/>
-      </c>
-      <c r="AA6" s="18" t="str">
-        <f>IF(_causek_day_shift!F3="","",_causek_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="AB6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!K3="","",_lianjaorb_day_shift!K3)</f>
-        <v/>
-      </c>
-      <c r="AC6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!L3="","",_lianjaorb_day_shift!L3)</f>
-        <v/>
-      </c>
-      <c r="AD6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!M3="","",_lianjaorb_day_shift!M3)</f>
-        <v/>
-      </c>
-      <c r="AE6" s="18" t="str">
-        <f>IF(_kjjunzhi_day_shift!C3="","",_kjjunzhi_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!N3="","",_lianjaorb_day_shift!N3)</f>
-        <v/>
-      </c>
-      <c r="AH6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!O3="","",_lianjaorb_day_shift!O3)</f>
-        <v/>
-      </c>
-      <c r="AI6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!P3="","",_lianjaorb_day_shift!P3)</f>
-        <v/>
-      </c>
-      <c r="AJ6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!Q3="","",_lianjaorb_day_shift!Q3)</f>
-        <v/>
-      </c>
-      <c r="AK6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!R3="","",_lianjaorb_day_shift!R3)</f>
-        <v/>
-      </c>
-      <c r="AL6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!S3="","",_lianjaorb_day_shift!S3)</f>
-        <v/>
-      </c>
-      <c r="AM6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!T3="","",_lianjaorb_day_shift!T3)</f>
-        <v/>
-      </c>
-      <c r="AN6" s="43" t="str">
-        <f>IF(_lianjaorb_day_shift!U3="","",_lianjaorb_day_shift!U3)</f>
+      <c r="P7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!E4="","",_lianjaorb_day_shift!E4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!F4="","",_lianjaorb_day_shift!F4)</f>
+        <v/>
+      </c>
+      <c r="R7" s="15" t="str">
+        <f>IF(_causek_day_shift!A4="","",_causek_day_shift!A4)</f>
+        <v/>
+      </c>
+      <c r="S7" s="15" t="str">
+        <f>IF(_causek_day_shift!B4="","",_causek_day_shift!B4)</f>
+        <v/>
+      </c>
+      <c r="T7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!G4="","",_lianjaorb_day_shift!G4)</f>
+        <v/>
+      </c>
+      <c r="U7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!H4="","",_lianjaorb_day_shift!H4)</f>
+        <v/>
+      </c>
+      <c r="V7" s="15" t="str">
+        <f>IF(_causek_day_shift!C4="","",_causek_day_shift!C4)</f>
+        <v/>
+      </c>
+      <c r="W7" s="15" t="str">
+        <f>IF(_causek_day_shift!D4="","",_causek_day_shift!D4)</f>
+        <v/>
+      </c>
+      <c r="X7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!I4="","",_lianjaorb_day_shift!I4)</f>
+        <v/>
+      </c>
+      <c r="Y7" s="15" t="str">
+        <f>IF(_causek_day_shift!E4="","",_causek_day_shift!E4)</f>
+        <v/>
+      </c>
+      <c r="Z7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!J4="","",_lianjaorb_day_shift!J4)</f>
+        <v/>
+      </c>
+      <c r="AA7" s="15" t="str">
+        <f>IF(_causek_day_shift!F4="","",_causek_day_shift!F4)</f>
+        <v/>
+      </c>
+      <c r="AB7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!K4="","",_lianjaorb_day_shift!K4)</f>
+        <v/>
+      </c>
+      <c r="AC7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!L4="","",_lianjaorb_day_shift!L4)</f>
+        <v/>
+      </c>
+      <c r="AD7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!M4="","",_lianjaorb_day_shift!M4)</f>
+        <v/>
+      </c>
+      <c r="AE7" s="15" t="str">
+        <f>IF(_kjjunzhi_day_shift!C4="","",_kjjunzhi_day_shift!C4)</f>
+        <v/>
+      </c>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!N4="","",_lianjaorb_day_shift!N4)</f>
+        <v/>
+      </c>
+      <c r="AH7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!O4="","",_lianjaorb_day_shift!O4)</f>
+        <v/>
+      </c>
+      <c r="AI7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!P4="","",_lianjaorb_day_shift!P4)</f>
+        <v/>
+      </c>
+      <c r="AJ7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!Q4="","",_lianjaorb_day_shift!Q4)</f>
+        <v/>
+      </c>
+      <c r="AK7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!R4="","",_lianjaorb_day_shift!R4)</f>
+        <v/>
+      </c>
+      <c r="AL7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!S4="","",_lianjaorb_day_shift!S4)</f>
+        <v/>
+      </c>
+      <c r="AM7" s="15" t="str">
+        <f>IF(_lianjaorb_day_shift!T4="","",_lianjaorb_day_shift!T4)</f>
+        <v/>
+      </c>
+      <c r="AN7" s="27" t="str">
+        <f>IF(_lianjaorb_day_shift!U4="","",_lianjaorb_day_shift!U4)</f>
         <v/>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:40">
-      <c r="A7" s="8"/>
-      <c r="B7" s="17" t="s">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!A4="","",_lianjaorb_day_shift!A4)</f>
-        <v/>
-      </c>
-      <c r="D7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!B4="","",_lianjaorb_day_shift!B4)</f>
-        <v/>
-      </c>
-      <c r="E7" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="19" t="str">
-        <f>IF(_lianjaorb_day_shift!C4="","",_lianjaorb_day_shift!C4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!D4="","",_lianjaorb_day_shift!D4)</f>
-        <v/>
-      </c>
-      <c r="H7" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="18" t="str">
-        <f>IF(_kjjunzhi_day_shift!A4="","",_kjjunzhi_day_shift!A4)</f>
-        <v/>
-      </c>
-      <c r="L7" s="18" t="str">
-        <f>IF(_kjjunzhi_day_shift!B4="","",_kjjunzhi_day_shift!B4)</f>
-        <v/>
-      </c>
-      <c r="M7" s="18" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" s="18" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!E4="","",_lianjaorb_day_shift!E4)</f>
-        <v/>
-      </c>
-      <c r="Q7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!F4="","",_lianjaorb_day_shift!F4)</f>
-        <v/>
-      </c>
-      <c r="R7" s="18" t="str">
-        <f>IF(_causek_day_shift!A4="","",_causek_day_shift!A4)</f>
-        <v/>
-      </c>
-      <c r="S7" s="18" t="str">
-        <f>IF(_causek_day_shift!B4="","",_causek_day_shift!B4)</f>
-        <v/>
-      </c>
-      <c r="T7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!G4="","",_lianjaorb_day_shift!G4)</f>
-        <v/>
-      </c>
-      <c r="U7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!H4="","",_lianjaorb_day_shift!H4)</f>
-        <v/>
-      </c>
-      <c r="V7" s="18" t="str">
-        <f>IF(_causek_day_shift!C4="","",_causek_day_shift!C4)</f>
-        <v/>
-      </c>
-      <c r="W7" s="18" t="str">
-        <f>IF(_causek_day_shift!D4="","",_causek_day_shift!D4)</f>
-        <v/>
-      </c>
-      <c r="X7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!I4="","",_lianjaorb_day_shift!I4)</f>
-        <v/>
-      </c>
-      <c r="Y7" s="18" t="str">
-        <f>IF(_causek_day_shift!E4="","",_causek_day_shift!E4)</f>
-        <v/>
-      </c>
-      <c r="Z7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!J4="","",_lianjaorb_day_shift!J4)</f>
-        <v/>
-      </c>
-      <c r="AA7" s="18" t="str">
-        <f>IF(_causek_day_shift!F4="","",_causek_day_shift!F4)</f>
-        <v/>
-      </c>
-      <c r="AB7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!K4="","",_lianjaorb_day_shift!K4)</f>
-        <v/>
-      </c>
-      <c r="AC7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!L4="","",_lianjaorb_day_shift!L4)</f>
-        <v/>
-      </c>
-      <c r="AD7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!M4="","",_lianjaorb_day_shift!M4)</f>
-        <v/>
-      </c>
-      <c r="AE7" s="18" t="str">
-        <f>IF(_kjjunzhi_day_shift!C4="","",_kjjunzhi_day_shift!C4)</f>
-        <v/>
-      </c>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!N4="","",_lianjaorb_day_shift!N4)</f>
-        <v/>
-      </c>
-      <c r="AH7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!O4="","",_lianjaorb_day_shift!O4)</f>
-        <v/>
-      </c>
-      <c r="AI7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!P4="","",_lianjaorb_day_shift!P4)</f>
-        <v/>
-      </c>
-      <c r="AJ7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!Q4="","",_lianjaorb_day_shift!Q4)</f>
-        <v/>
-      </c>
-      <c r="AK7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!R4="","",_lianjaorb_day_shift!R4)</f>
-        <v/>
-      </c>
-      <c r="AL7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!S4="","",_lianjaorb_day_shift!S4)</f>
-        <v/>
-      </c>
-      <c r="AM7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!T4="","",_lianjaorb_day_shift!T4)</f>
-        <v/>
-      </c>
-      <c r="AN7" s="43" t="str">
-        <f>IF(_lianjaorb_day_shift!U4="","",_lianjaorb_day_shift!U4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:40">
-      <c r="A8" s="8"/>
-      <c r="B8" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <f t="shared" ref="C8:O8" si="7">SUM(C5:C7)/3</f>
         <v>0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E8" s="21" t="e">
+      <c r="E8" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H8" s="21" t="e">
+      <c r="H8" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="21" t="e">
+      <c r="I8" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="21" t="e">
+      <c r="J8" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M8" s="21" t="e">
+      <c r="M8" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="21" t="e">
+      <c r="N8" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O8" s="21" t="e">
+      <c r="O8" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="44"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="28"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
     </row>
-    <row r="14" s="7" customFormat="1" ht="39.6" customHeight="1" spans="1:32">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:40" s="7" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="E14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="E14" s="7" t="s">
+      <c r="H14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K14" s="7">
         <v>17300</v>
@@ -3091,23 +2478,23 @@
         <v>3350</v>
       </c>
       <c r="M14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="AF14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AF14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:40" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="23.45" customHeight="1" spans="1:32">
-      <c r="A15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="E15" s="3">
         <f>(C15*K15+D15*L15)/10^6</f>
         <v>0</v>
@@ -3141,11 +2528,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" ht="81" spans="1:32">
-      <c r="A16" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:40" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="20"/>
       <c r="E16" s="7" t="str">
         <f t="shared" ref="E16:J16" si="8">_xlfn.FORMULATEXT(E15)</f>
         <v>=(C15*K15+D15*L15)/10^6</v>
@@ -3180,14 +2567,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B1:AH1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="AC2:AD2"/>
+  <mergeCells count="27">
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="T1:AN1"/>
+    <mergeCell ref="B1:S1"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="K2:K3"/>
@@ -3204,170 +2589,183 @@
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:S4 V4:W4 R5 S5 V5 W5 Y5 AA5 R6 S6 V6 W6 Y6 AA6 R7 S7 V7 W7 Y7 AA7 R8 S8 V8 Y8 AA8 R9:R15">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="45" spans="1:21">
+    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="1.炼焦日报表（班日、月）" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+  <si>
+    <t>炼热工作业区生产统计表</t>
+  </si>
   <si>
     <t>6#焦炉</t>
   </si>
@@ -48,7 +51,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">6# </t>
     </r>
@@ -56,7 +59,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炉</t>
@@ -67,7 +69,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>7#</t>
     </r>
@@ -75,7 +77,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炉</t>
@@ -90,7 +91,6 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>影响</t>
@@ -100,7 +100,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>K1</t>
     </r>
@@ -109,7 +109,6 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>原因（大类）</t>
@@ -124,7 +123,6 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>影响</t>
@@ -134,7 +132,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>K2</t>
     </r>
@@ -143,7 +141,6 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>原因（大类）</t>
@@ -205,7 +202,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>K</t>
     </r>
@@ -213,7 +210,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>安</t>
@@ -230,7 +226,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>K</t>
     </r>
@@ -238,7 +234,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>均</t>
@@ -421,20 +416,20 @@
   <si>
     <t>k2KReason</t>
   </si>
-  <si>
-    <t>炼热工作业区生产统计表</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,117 +441,247 @@
       <sz val="12"/>
       <color rgb="FF9876AA"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF6A8759"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,8 +694,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -609,6 +920,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -673,36 +993,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -722,15 +1012,287 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -752,22 +1314,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,10 +1347,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,97 +1359,129 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 5" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 5" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -889,7 +1492,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -903,7 +1506,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -1095,7 +1698,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1141,7 +1744,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1187,7 +1790,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1233,7 +1836,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -1521,19 +2124,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="B1" sqref="B1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="3" customWidth="1"/>
@@ -1542,246 +2145,246 @@
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="48">
+    <row r="1" ht="21" customHeight="1" spans="2:40">
+      <c r="B1" s="9">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
     </row>
-    <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+    <row r="2" ht="25.5" customHeight="1" spans="1:40">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="32" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="L2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="O2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30" t="s">
+      <c r="P2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Y2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="Z2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AA2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AB2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="32" t="s">
+      <c r="AC2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AF2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AG2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AH2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29" t="s">
+      <c r="AI2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="44" t="s">
+      <c r="AM2" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="AN2" s="42" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="11" t="s">
+    <row r="3" ht="36" spans="1:40">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="21" t="s">
+      <c r="J3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="Q3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="R3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="S3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="23" t="s">
+      <c r="T3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="V3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD3" s="11" t="s">
+      <c r="W3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
+      <c r="AD3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
       <c r="AH3" s="43"/>
-      <c r="AI3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AI3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="45"/>
+      <c r="AK3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="44"/>
     </row>
-    <row r="4" spans="1:40" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>40</v>
+    <row r="4" s="6" customFormat="1" ht="56.25" spans="1:40">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="e">
         <f t="shared" ref="E4:E7" si="0">(C4*K4+D4*L4)/10^6</f>
         <v>#VALUE!</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="4" t="e">
         <f t="shared" ref="H4:H7" si="1">(F4*K4+G4*L4)/10^6</f>
@@ -1795,11 +2398,11 @@
         <f t="shared" ref="J4:J7" si="3">D4+G4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="22" t="s">
+      <c r="K4" s="31" t="s">
         <v>46</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="M4" s="4" t="e">
         <f t="shared" ref="M4:M7" si="4">(E4+H4)/AH4*1000-31*(AL4-7)</f>
@@ -1814,662 +2417,662 @@
         <v>#VALUE!</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="36" t="s">
         <v>50</v>
       </c>
+      <c r="S4" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="T4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="V4" s="36" t="s">
         <v>54</v>
       </c>
+      <c r="W4" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="X4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="25" t="s">
         <v>56</v>
       </c>
+      <c r="Y4" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="Z4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA4" s="25" t="s">
         <v>58</v>
       </c>
+      <c r="AA4" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="AB4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AF4" s="24" t="e">
+      <c r="AE4" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4" s="36" t="e">
         <f>AE4*AD4</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="15" t="str">
+    <row r="5" spans="2:40">
+      <c r="B5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!A2="","",_lianjaorb_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D5" s="15" t="str">
+      <c r="D5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!B2="","",_lianjaorb_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E5" s="15" t="e">
+      <c r="E5" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!C2="","",_lianjaorb_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!D2="","",_lianjaorb_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="H5" s="15" t="e">
+      <c r="H5" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="15" t="e">
+      <c r="I5" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="15" t="e">
+      <c r="J5" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="15" t="str">
+      <c r="K5" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!A2="","",_kjjunzhi_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="L5" s="15" t="str">
+      <c r="L5" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!B2="","",_kjjunzhi_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="M5" s="15" t="e">
+      <c r="M5" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="15" t="e">
+      <c r="N5" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="15" t="e">
+      <c r="O5" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P5" s="15" t="str">
+      <c r="P5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!E2="","",_lianjaorb_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="Q5" s="15" t="str">
+      <c r="Q5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!F2="","",_lianjaorb_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="R5" s="15" t="str">
+      <c r="R5" s="18" t="str">
         <f>IF(_causek_day_shift!A2="","",_causek_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="S5" s="15" t="str">
+      <c r="S5" s="18" t="str">
         <f>IF(_causek_day_shift!B2="","",_causek_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="T5" s="15" t="str">
+      <c r="T5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!G2="","",_lianjaorb_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="U5" s="15" t="str">
+      <c r="U5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!H2="","",_lianjaorb_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="V5" s="15" t="str">
+      <c r="V5" s="18" t="str">
         <f>IF(_causek_day_shift!C2="","",_causek_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="W5" s="15" t="str">
+      <c r="W5" s="18" t="str">
         <f>IF(_causek_day_shift!D2="","",_causek_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="X5" s="15" t="str">
+      <c r="X5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!I2="","",_lianjaorb_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="Y5" s="15" t="str">
+      <c r="Y5" s="18" t="str">
         <f>IF(_causek_day_shift!E2="","",_causek_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="Z5" s="15" t="str">
+      <c r="Z5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!J2="","",_lianjaorb_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="AA5" s="15" t="str">
+      <c r="AA5" s="18" t="str">
         <f>IF(_causek_day_shift!F2="","",_causek_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="AB5" s="15" t="str">
+      <c r="AB5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!K2="","",_lianjaorb_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="AC5" s="15" t="str">
+      <c r="AC5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!L2="","",_lianjaorb_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="AD5" s="15" t="str">
+      <c r="AD5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!M2="","",_lianjaorb_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="AE5" s="15" t="str">
+      <c r="AE5" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!C2="","",_kjjunzhi_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15" t="str">
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!N2="","",_lianjaorb_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="AH5" s="15" t="str">
+      <c r="AH5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!O2="","",_lianjaorb_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="AI5" s="15" t="str">
+      <c r="AI5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!P2="","",_lianjaorb_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="15" t="str">
+      <c r="AJ5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!Q2="","",_lianjaorb_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="AK5" s="15" t="str">
+      <c r="AK5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!R2="","",_lianjaorb_day_shift!R2)</f>
         <v/>
       </c>
-      <c r="AL5" s="15" t="str">
+      <c r="AL5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!S2="","",_lianjaorb_day_shift!S2)</f>
         <v/>
       </c>
-      <c r="AM5" s="15" t="str">
+      <c r="AM5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!T2="","",_lianjaorb_day_shift!T2)</f>
         <v/>
       </c>
-      <c r="AN5" s="27" t="str">
+      <c r="AN5" s="45" t="str">
         <f>IF(_lianjaorb_day_shift!U2="","",_lianjaorb_day_shift!U2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="15" t="str">
+    <row r="6" spans="2:40">
+      <c r="B6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!A3="","",_lianjaorb_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!B3="","",_lianjaorb_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="E6" s="15" t="e">
+      <c r="E6" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!C3="","",_lianjaorb_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!D3="","",_lianjaorb_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="H6" s="15" t="e">
+      <c r="H6" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="15" t="e">
+      <c r="I6" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="15" t="e">
+      <c r="J6" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="15" t="str">
+      <c r="K6" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!A3="","",_kjjunzhi_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="L6" s="15" t="str">
+      <c r="L6" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!B3="","",_kjjunzhi_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="M6" s="15" t="e">
+      <c r="M6" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N6" s="15" t="e">
+      <c r="N6" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O6" s="15" t="e">
+      <c r="O6" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P6" s="15" t="str">
+      <c r="P6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!E3="","",_lianjaorb_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="Q6" s="15" t="str">
+      <c r="Q6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!F3="","",_lianjaorb_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="R6" s="15" t="str">
+      <c r="R6" s="18" t="str">
         <f>IF(_causek_day_shift!A3="","",_causek_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="S6" s="15" t="str">
+      <c r="S6" s="18" t="str">
         <f>IF(_causek_day_shift!B3="","",_causek_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="T6" s="15" t="str">
+      <c r="T6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!G3="","",_lianjaorb_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="U6" s="15" t="str">
+      <c r="U6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!H3="","",_lianjaorb_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="V6" s="15" t="str">
+      <c r="V6" s="18" t="str">
         <f>IF(_causek_day_shift!C3="","",_causek_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="W6" s="15" t="str">
+      <c r="W6" s="18" t="str">
         <f>IF(_causek_day_shift!D3="","",_causek_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="X6" s="15" t="str">
+      <c r="X6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!I3="","",_lianjaorb_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="Y6" s="15" t="str">
+      <c r="Y6" s="18" t="str">
         <f>IF(_causek_day_shift!E3="","",_causek_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="Z6" s="15" t="str">
+      <c r="Z6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!J3="","",_lianjaorb_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="AA6" s="15" t="str">
+      <c r="AA6" s="18" t="str">
         <f>IF(_causek_day_shift!F3="","",_causek_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="AB6" s="15" t="str">
+      <c r="AB6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!K3="","",_lianjaorb_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="AC6" s="15" t="str">
+      <c r="AC6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!L3="","",_lianjaorb_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="AD6" s="15" t="str">
+      <c r="AD6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!M3="","",_lianjaorb_day_shift!M3)</f>
         <v/>
       </c>
-      <c r="AE6" s="15" t="str">
+      <c r="AE6" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!C3="","",_kjjunzhi_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15" t="str">
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!N3="","",_lianjaorb_day_shift!N3)</f>
         <v/>
       </c>
-      <c r="AH6" s="15" t="str">
+      <c r="AH6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!O3="","",_lianjaorb_day_shift!O3)</f>
         <v/>
       </c>
-      <c r="AI6" s="15" t="str">
+      <c r="AI6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!P3="","",_lianjaorb_day_shift!P3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="15" t="str">
+      <c r="AJ6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!Q3="","",_lianjaorb_day_shift!Q3)</f>
         <v/>
       </c>
-      <c r="AK6" s="15" t="str">
+      <c r="AK6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!R3="","",_lianjaorb_day_shift!R3)</f>
         <v/>
       </c>
-      <c r="AL6" s="15" t="str">
+      <c r="AL6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!S3="","",_lianjaorb_day_shift!S3)</f>
         <v/>
       </c>
-      <c r="AM6" s="15" t="str">
+      <c r="AM6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!T3="","",_lianjaorb_day_shift!T3)</f>
         <v/>
       </c>
-      <c r="AN6" s="27" t="str">
+      <c r="AN6" s="45" t="str">
         <f>IF(_lianjaorb_day_shift!U3="","",_lianjaorb_day_shift!U3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="15" t="str">
+    <row r="7" spans="2:40">
+      <c r="B7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!A4="","",_lianjaorb_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!B4="","",_lianjaorb_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="15" t="e">
+      <c r="E7" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="19" t="str">
         <f>IF(_lianjaorb_day_shift!C4="","",_lianjaorb_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!D4="","",_lianjaorb_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="H7" s="15" t="e">
+      <c r="H7" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I7" s="15" t="e">
+      <c r="I7" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="15" t="e">
+      <c r="J7" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="15" t="str">
+      <c r="K7" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!A4="","",_kjjunzhi_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="L7" s="15" t="str">
+      <c r="L7" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!B4="","",_kjjunzhi_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="M7" s="15" t="e">
+      <c r="M7" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="15" t="e">
+      <c r="N7" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O7" s="15" t="e">
+      <c r="O7" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P7" s="15" t="str">
+      <c r="P7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!E4="","",_lianjaorb_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="Q7" s="15" t="str">
+      <c r="Q7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!F4="","",_lianjaorb_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="R7" s="15" t="str">
+      <c r="R7" s="18" t="str">
         <f>IF(_causek_day_shift!A4="","",_causek_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="S7" s="15" t="str">
+      <c r="S7" s="18" t="str">
         <f>IF(_causek_day_shift!B4="","",_causek_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="T7" s="15" t="str">
+      <c r="T7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!G4="","",_lianjaorb_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="U7" s="15" t="str">
+      <c r="U7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!H4="","",_lianjaorb_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="V7" s="15" t="str">
+      <c r="V7" s="18" t="str">
         <f>IF(_causek_day_shift!C4="","",_causek_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="W7" s="15" t="str">
+      <c r="W7" s="18" t="str">
         <f>IF(_causek_day_shift!D4="","",_causek_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="X7" s="15" t="str">
+      <c r="X7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!I4="","",_lianjaorb_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="Y7" s="15" t="str">
+      <c r="Y7" s="18" t="str">
         <f>IF(_causek_day_shift!E4="","",_causek_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="Z7" s="15" t="str">
+      <c r="Z7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!J4="","",_lianjaorb_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="AA7" s="15" t="str">
+      <c r="AA7" s="18" t="str">
         <f>IF(_causek_day_shift!F4="","",_causek_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="AB7" s="15" t="str">
+      <c r="AB7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!K4="","",_lianjaorb_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="AC7" s="15" t="str">
+      <c r="AC7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!L4="","",_lianjaorb_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="AD7" s="15" t="str">
+      <c r="AD7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!M4="","",_lianjaorb_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="AE7" s="15" t="str">
+      <c r="AE7" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!C4="","",_kjjunzhi_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15" t="str">
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!N4="","",_lianjaorb_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="AH7" s="15" t="str">
+      <c r="AH7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!O4="","",_lianjaorb_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="AI7" s="15" t="str">
+      <c r="AI7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!P4="","",_lianjaorb_day_shift!P4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="15" t="str">
+      <c r="AJ7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!Q4="","",_lianjaorb_day_shift!Q4)</f>
         <v/>
       </c>
-      <c r="AK7" s="15" t="str">
+      <c r="AK7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!R4="","",_lianjaorb_day_shift!R4)</f>
         <v/>
       </c>
-      <c r="AL7" s="15" t="str">
+      <c r="AL7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!S4="","",_lianjaorb_day_shift!S4)</f>
         <v/>
       </c>
-      <c r="AM7" s="15" t="str">
+      <c r="AM7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!T4="","",_lianjaorb_day_shift!T4)</f>
         <v/>
       </c>
-      <c r="AN7" s="27" t="str">
+      <c r="AN7" s="45" t="str">
         <f>IF(_lianjaorb_day_shift!U4="","",_lianjaorb_day_shift!U4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="18">
+    <row r="8" ht="14.25" spans="2:40">
+      <c r="B8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="21">
         <f t="shared" ref="C8:O8" si="7">SUM(C5:C7)/3</f>
         <v>0</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E8" s="18" t="e">
+      <c r="E8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="e">
+      <c r="H8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="18" t="e">
+      <c r="I8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="18" t="e">
+      <c r="J8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M8" s="18" t="e">
+      <c r="M8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="18" t="e">
+      <c r="N8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O8" s="18" t="e">
+      <c r="O8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="28"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="46"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+    <row r="13" spans="1:2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
     </row>
-    <row r="14" spans="1:40" s="7" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="20"/>
+    <row r="14" s="7" customFormat="1" ht="39.6" customHeight="1" spans="1:32">
+      <c r="A14" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="23"/>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7">
         <v>17300</v>
@@ -2478,23 +3081,23 @@
         <v>3350</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="20"/>
+    <row r="15" ht="23.45" customHeight="1" spans="1:32">
+      <c r="A15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="23"/>
       <c r="E15" s="3">
         <f>(C15*K15+D15*L15)/10^6</f>
         <v>0</v>
@@ -2528,11 +3131,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="20"/>
+    <row r="16" s="7" customFormat="1" ht="81" spans="1:32">
+      <c r="A16" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="23"/>
       <c r="E16" s="7" t="str">
         <f t="shared" ref="E16:J16" si="8">_xlfn.FORMULATEXT(E15)</f>
         <v>=(C15*K15+D15*L15)/10^6</v>
@@ -2568,11 +3171,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="B1:S1"/>
     <mergeCell ref="T1:AN1"/>
-    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="K2:K3"/>
@@ -2589,183 +3195,186 @@
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:S4 V4:W4 R5 S5 V5 W5 Y5 AA5 R6 S6 V6 W6 Y6 AA6 R7 S7 V7 W7 Y7 AA7 R8 S8 V8 Y8 AA8 R9:R15">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" ht="45" spans="1:21">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="1.炼焦日报表（班日、月）" sheetId="1" r:id="rId1"/>
@@ -422,12 +422,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -530,6 +530,56 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -540,6 +590,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -549,67 +668,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,65 +679,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -696,7 +696,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +738,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +786,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,31 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,49 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,55 +870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,17 +1043,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,8 +1061,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,28 +1093,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,8 +1126,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,7 +1136,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,10 +1146,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,139 +1158,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1362,10 +1362,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1374,10 +1374,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1389,7 +1389,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1410,7 +1410,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,9 +2146,9 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="2:40">
-      <c r="B1" s="9">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="B1" s="9" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>

--- a/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
@@ -11,14 +11,16 @@
     <sheet name="_lianjaorb_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_kjjunzhi_day_shift" sheetId="3" r:id="rId3"/>
     <sheet name="_causek_day_shift" sheetId="4" r:id="rId4"/>
-    <sheet name="_metadata" sheetId="5" r:id="rId5"/>
+    <sheet name="_actual_day_shift" sheetId="6" r:id="rId5"/>
+    <sheet name="_analysis_day_shift" sheetId="7" r:id="rId6"/>
+    <sheet name="_metadata" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>炼热工作业区生产统计表</t>
   </si>
@@ -416,18 +418,60 @@
   <si>
     <t>k2KReason</t>
   </si>
+  <si>
+    <t>NO1_FURNACE_K_AN</t>
+  </si>
+  <si>
+    <t>NO1_FURNACE_K_AVG</t>
+  </si>
+  <si>
+    <t>NO2_FURNACE_K_AN</t>
+  </si>
+  <si>
+    <t>NO2_FURNACE_K_AVG</t>
+  </si>
+  <si>
+    <t>PLAN_OUT_HOLES_NUMBER</t>
+  </si>
+  <si>
+    <t>ACTUAL_OUT_HOLES_NUMBER</t>
+  </si>
+  <si>
+    <t>AVERAGE_COAL_LOADING</t>
+  </si>
+  <si>
+    <t>COAL_LOADING_ALL</t>
+  </si>
+  <si>
+    <t>COKING_TIME_AVERAGE</t>
+  </si>
+  <si>
+    <t>COKING_TIME_LONGEST</t>
+  </si>
+  <si>
+    <t>COKING_TIME_SHORTEST</t>
+  </si>
+  <si>
+    <t>ENTERING_COAL_MOISTURE</t>
+  </si>
+  <si>
+    <t>COAL_LOADING_COEFFICIENT</t>
+  </si>
+  <si>
+    <t>KH-Y/Vdaf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -457,11 +501,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -532,9 +571,75 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -545,10 +650,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,8 +697,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,110 +720,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -696,121 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,13 +764,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,12 +878,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -870,13 +890,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,21 +949,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1037,8 +1066,62 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,47 +1146,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,9 +1176,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,10 +1190,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,139 +1202,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1302,9 +1346,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1314,43 +1355,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,46 +1400,49 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,22 +1451,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2132,13 +2176,13 @@
   <sheetPr/>
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AM5" sqref="AM5:AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="3" customWidth="1"/>
     <col min="3" max="12" width="6.125" style="3" customWidth="1"/>
     <col min="13" max="16" width="7.5" style="3" customWidth="1"/>
@@ -2146,228 +2190,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="2:40">
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="8" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="32" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:40">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AC2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="24" t="s">
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AG2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AI2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12" t="s">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="42" t="s">
+      <c r="AN2" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:40">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="14" t="s">
+      <c r="X3" s="34"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AD3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="14" t="s">
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AK3" s="14" t="s">
+      <c r="AK3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="44"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="43"/>
     </row>
-    <row r="4" s="6" customFormat="1" ht="56.25" spans="1:40">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" s="5" customFormat="1" ht="56.25" spans="1:40">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2398,10 +2442,10 @@
         <f t="shared" ref="J4:J7" si="3">D4+G4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>47</v>
       </c>
       <c r="M4" s="4" t="e">
@@ -2422,10 +2466,10 @@
       <c r="Q4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="35" t="s">
         <v>51</v>
       </c>
       <c r="T4" s="4" t="s">
@@ -2434,22 +2478,22 @@
       <c r="U4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="W4" s="35" t="s">
         <v>55</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Y4" s="38" t="s">
         <v>57</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="39" t="s">
+      <c r="AA4" s="38" t="s">
         <v>59</v>
       </c>
       <c r="AB4" s="4" t="s">
@@ -2461,10 +2505,10 @@
       <c r="AD4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="40" t="s">
+      <c r="AE4" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="AF4" s="36" t="e">
+      <c r="AF4" s="35" t="e">
         <f>AE4*AD4</f>
         <v>#VALUE!</v>
       </c>
@@ -2489,615 +2533,615 @@
       <c r="AM4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN4" s="44" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:40">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="18" t="str">
+      <c r="C5" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!A2="","",_lianjaorb_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D5" s="18" t="str">
+      <c r="D5" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!B2="","",_lianjaorb_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E5" s="18" t="e">
+      <c r="E5" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F5" s="18" t="str">
+      <c r="F5" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!C2="","",_lianjaorb_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="G5" s="18" t="str">
+      <c r="G5" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!D2="","",_lianjaorb_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="H5" s="18" t="e">
+      <c r="H5" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="18" t="e">
+      <c r="I5" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="18" t="e">
+      <c r="J5" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="18" t="str">
+      <c r="K5" s="17" t="str">
         <f>IF(_kjjunzhi_day_shift!A2="","",_kjjunzhi_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="L5" s="18" t="str">
+      <c r="L5" s="17" t="str">
         <f>IF(_kjjunzhi_day_shift!B2="","",_kjjunzhi_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="M5" s="18" t="e">
+      <c r="M5" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="18" t="e">
+      <c r="N5" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="18" t="e">
+      <c r="O5" s="17" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!E2="","",_lianjaorb_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="Q5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!F2="","",_lianjaorb_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="R5" s="18" t="str">
+      <c r="P5" s="17" t="str">
+        <f>IF(_actual_day_shift!A2="","",_actual_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="17" t="str">
+        <f>IF(_actual_day_shift!B2="","",_actual_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="R5" s="17" t="str">
         <f>IF(_causek_day_shift!A2="","",_causek_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="S5" s="18" t="str">
+      <c r="S5" s="17" t="str">
         <f>IF(_causek_day_shift!B2="","",_causek_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="T5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!G2="","",_lianjaorb_day_shift!G2)</f>
-        <v/>
-      </c>
-      <c r="U5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!H2="","",_lianjaorb_day_shift!H2)</f>
-        <v/>
-      </c>
-      <c r="V5" s="18" t="str">
+      <c r="T5" s="17" t="str">
+        <f>IF(_actual_day_shift!C2="","",_actual_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="U5" s="17" t="str">
+        <f>IF(_actual_day_shift!D2="","",_actual_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="V5" s="17" t="str">
         <f>IF(_causek_day_shift!C2="","",_causek_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="W5" s="18" t="str">
+      <c r="W5" s="17" t="str">
         <f>IF(_causek_day_shift!D2="","",_causek_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="X5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!I2="","",_lianjaorb_day_shift!I2)</f>
-        <v/>
-      </c>
-      <c r="Y5" s="18" t="str">
+      <c r="X5" s="17" t="str">
+        <f>IF(_actual_day_shift!E2="","",_actual_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="Y5" s="17" t="str">
         <f>IF(_causek_day_shift!E2="","",_causek_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="Z5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!J2="","",_lianjaorb_day_shift!J2)</f>
-        <v/>
-      </c>
-      <c r="AA5" s="18" t="str">
+      <c r="Z5" s="17" t="str">
+        <f>IF(_actual_day_shift!F2="","",_actual_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="AA5" s="17" t="str">
         <f>IF(_causek_day_shift!F2="","",_causek_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="AB5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!K2="","",_lianjaorb_day_shift!K2)</f>
-        <v/>
-      </c>
-      <c r="AC5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!L2="","",_lianjaorb_day_shift!L2)</f>
-        <v/>
-      </c>
-      <c r="AD5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!M2="","",_lianjaorb_day_shift!M2)</f>
-        <v/>
-      </c>
-      <c r="AE5" s="18" t="str">
+      <c r="AB5" s="17" t="str">
+        <f>IF(_actual_day_shift!G2="","",_actual_day_shift!G2)</f>
+        <v/>
+      </c>
+      <c r="AC5" s="17" t="str">
+        <f>IF(_actual_day_shift!H2="","",_actual_day_shift!H2)</f>
+        <v/>
+      </c>
+      <c r="AD5" s="17" t="str">
+        <f>IF(_actual_day_shift!I2="","",_actual_day_shift!I2)</f>
+        <v/>
+      </c>
+      <c r="AE5" s="17" t="str">
         <f>IF(_kjjunzhi_day_shift!C2="","",_kjjunzhi_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!N2="","",_lianjaorb_day_shift!N2)</f>
-        <v/>
-      </c>
-      <c r="AH5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!O2="","",_lianjaorb_day_shift!O2)</f>
-        <v/>
-      </c>
-      <c r="AI5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!P2="","",_lianjaorb_day_shift!P2)</f>
-        <v/>
-      </c>
-      <c r="AJ5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!Q2="","",_lianjaorb_day_shift!Q2)</f>
-        <v/>
-      </c>
-      <c r="AK5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!R2="","",_lianjaorb_day_shift!R2)</f>
-        <v/>
-      </c>
-      <c r="AL5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!S2="","",_lianjaorb_day_shift!S2)</f>
-        <v/>
-      </c>
-      <c r="AM5" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!T2="","",_lianjaorb_day_shift!T2)</f>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17" t="str">
+        <f>IF(_actual_day_shift!J2="","",_actual_day_shift!J2)</f>
+        <v/>
+      </c>
+      <c r="AH5" s="17" t="str">
+        <f>IF(_actual_day_shift!K2="","",_actual_day_shift!K2)</f>
+        <v/>
+      </c>
+      <c r="AI5" s="17" t="str">
+        <f>IF(_actual_day_shift!L2="","",_actual_day_shift!L2)</f>
+        <v/>
+      </c>
+      <c r="AJ5" s="17" t="str">
+        <f>IF(_actual_day_shift!M2="","",_actual_day_shift!M2)</f>
+        <v/>
+      </c>
+      <c r="AK5" s="17" t="str">
+        <f>IF(_actual_day_shift!N2="","",_actual_day_shift!N2)</f>
+        <v/>
+      </c>
+      <c r="AL5" s="17" t="str">
+        <f>IF(_actual_day_shift!O2="","",_actual_day_shift!O2)</f>
+        <v/>
+      </c>
+      <c r="AM5" s="17" t="str">
+        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
       <c r="AN5" s="45" t="str">
-        <f>IF(_lianjaorb_day_shift!U2="","",_lianjaorb_day_shift!U2)</f>
+        <f>IF(_actual_day_shift!P2="","",_actual_day_shift!P2)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="2:40">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="18" t="str">
+      <c r="C6" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!A3="","",_lianjaorb_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="D6" s="18" t="str">
+      <c r="D6" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!B3="","",_lianjaorb_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="E6" s="18" t="e">
+      <c r="E6" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="18" t="str">
+      <c r="F6" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!C3="","",_lianjaorb_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="G6" s="18" t="str">
+      <c r="G6" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!D3="","",_lianjaorb_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="H6" s="18" t="e">
+      <c r="H6" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="18" t="e">
+      <c r="I6" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="18" t="e">
+      <c r="J6" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="18" t="str">
+      <c r="K6" s="17" t="str">
         <f>IF(_kjjunzhi_day_shift!A3="","",_kjjunzhi_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="17" t="str">
         <f>IF(_kjjunzhi_day_shift!B3="","",_kjjunzhi_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="M6" s="18" t="e">
+      <c r="M6" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N6" s="18" t="e">
+      <c r="N6" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O6" s="18" t="e">
+      <c r="O6" s="17" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!E3="","",_lianjaorb_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="Q6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!F3="","",_lianjaorb_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="R6" s="18" t="str">
+      <c r="P6" s="17" t="str">
+        <f>IF(_actual_day_shift!A3="","",_actual_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="17" t="str">
+        <f>IF(_actual_day_shift!B3="","",_actual_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="R6" s="17" t="str">
         <f>IF(_causek_day_shift!A3="","",_causek_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="S6" s="18" t="str">
+      <c r="S6" s="17" t="str">
         <f>IF(_causek_day_shift!B3="","",_causek_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="T6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!G3="","",_lianjaorb_day_shift!G3)</f>
-        <v/>
-      </c>
-      <c r="U6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!H3="","",_lianjaorb_day_shift!H3)</f>
-        <v/>
-      </c>
-      <c r="V6" s="18" t="str">
+      <c r="T6" s="17" t="str">
+        <f>IF(_actual_day_shift!C3="","",_actual_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="U6" s="17" t="str">
+        <f>IF(_actual_day_shift!D3="","",_actual_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="V6" s="17" t="str">
         <f>IF(_causek_day_shift!C3="","",_causek_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="W6" s="18" t="str">
+      <c r="W6" s="17" t="str">
         <f>IF(_causek_day_shift!D3="","",_causek_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="X6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!I3="","",_lianjaorb_day_shift!I3)</f>
-        <v/>
-      </c>
-      <c r="Y6" s="18" t="str">
+      <c r="X6" s="17" t="str">
+        <f>IF(_actual_day_shift!E3="","",_actual_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="Y6" s="17" t="str">
         <f>IF(_causek_day_shift!E3="","",_causek_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="Z6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!J3="","",_lianjaorb_day_shift!J3)</f>
-        <v/>
-      </c>
-      <c r="AA6" s="18" t="str">
+      <c r="Z6" s="17" t="str">
+        <f>IF(_actual_day_shift!F3="","",_actual_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="AA6" s="17" t="str">
         <f>IF(_causek_day_shift!F3="","",_causek_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="AB6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!K3="","",_lianjaorb_day_shift!K3)</f>
-        <v/>
-      </c>
-      <c r="AC6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!L3="","",_lianjaorb_day_shift!L3)</f>
-        <v/>
-      </c>
-      <c r="AD6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!M3="","",_lianjaorb_day_shift!M3)</f>
-        <v/>
-      </c>
-      <c r="AE6" s="18" t="str">
+      <c r="AB6" s="17" t="str">
+        <f>IF(_actual_day_shift!G3="","",_actual_day_shift!G3)</f>
+        <v/>
+      </c>
+      <c r="AC6" s="17" t="str">
+        <f>IF(_actual_day_shift!H3="","",_actual_day_shift!H3)</f>
+        <v/>
+      </c>
+      <c r="AD6" s="17" t="str">
+        <f>IF(_actual_day_shift!I3="","",_actual_day_shift!I3)</f>
+        <v/>
+      </c>
+      <c r="AE6" s="17" t="str">
         <f>IF(_kjjunzhi_day_shift!C3="","",_kjjunzhi_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!N3="","",_lianjaorb_day_shift!N3)</f>
-        <v/>
-      </c>
-      <c r="AH6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!O3="","",_lianjaorb_day_shift!O3)</f>
-        <v/>
-      </c>
-      <c r="AI6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!P3="","",_lianjaorb_day_shift!P3)</f>
-        <v/>
-      </c>
-      <c r="AJ6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!Q3="","",_lianjaorb_day_shift!Q3)</f>
-        <v/>
-      </c>
-      <c r="AK6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!R3="","",_lianjaorb_day_shift!R3)</f>
-        <v/>
-      </c>
-      <c r="AL6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!S3="","",_lianjaorb_day_shift!S3)</f>
-        <v/>
-      </c>
-      <c r="AM6" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!T3="","",_lianjaorb_day_shift!T3)</f>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17" t="str">
+        <f>IF(_actual_day_shift!J3="","",_actual_day_shift!J3)</f>
+        <v/>
+      </c>
+      <c r="AH6" s="17" t="str">
+        <f>IF(_actual_day_shift!K3="","",_actual_day_shift!K3)</f>
+        <v/>
+      </c>
+      <c r="AI6" s="17" t="str">
+        <f>IF(_actual_day_shift!L3="","",_actual_day_shift!L3)</f>
+        <v/>
+      </c>
+      <c r="AJ6" s="17" t="str">
+        <f>IF(_actual_day_shift!M3="","",_actual_day_shift!M3)</f>
+        <v/>
+      </c>
+      <c r="AK6" s="17" t="str">
+        <f>IF(_actual_day_shift!N3="","",_actual_day_shift!N3)</f>
+        <v/>
+      </c>
+      <c r="AL6" s="17" t="str">
+        <f>IF(_actual_day_shift!O3="","",_actual_day_shift!O3)</f>
+        <v/>
+      </c>
+      <c r="AM6" s="17" t="str">
+        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
       <c r="AN6" s="45" t="str">
-        <f>IF(_lianjaorb_day_shift!U3="","",_lianjaorb_day_shift!U3)</f>
+        <f>IF(_actual_day_shift!P3="","",_actual_day_shift!P3)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="2:40">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="18" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!A4="","",_lianjaorb_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!B4="","",_lianjaorb_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="18" t="e">
+      <c r="E7" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!C4="","",_lianjaorb_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="17" t="str">
         <f>IF(_lianjaorb_day_shift!D4="","",_lianjaorb_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="H7" s="18" t="e">
+      <c r="H7" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I7" s="18" t="e">
+      <c r="I7" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="18" t="e">
+      <c r="J7" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="18" t="str">
+      <c r="K7" s="17" t="str">
         <f>IF(_kjjunzhi_day_shift!A4="","",_kjjunzhi_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="L7" s="18" t="str">
+      <c r="L7" s="17" t="str">
         <f>IF(_kjjunzhi_day_shift!B4="","",_kjjunzhi_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="M7" s="18" t="e">
+      <c r="M7" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="18" t="e">
+      <c r="N7" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O7" s="18" t="e">
+      <c r="O7" s="17" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!E4="","",_lianjaorb_day_shift!E4)</f>
-        <v/>
-      </c>
-      <c r="Q7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!F4="","",_lianjaorb_day_shift!F4)</f>
-        <v/>
-      </c>
-      <c r="R7" s="18" t="str">
+      <c r="P7" s="17" t="str">
+        <f>IF(_actual_day_shift!A4="","",_actual_day_shift!A4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="17" t="str">
+        <f>IF(_actual_day_shift!B4="","",_actual_day_shift!B4)</f>
+        <v/>
+      </c>
+      <c r="R7" s="17" t="str">
         <f>IF(_causek_day_shift!A4="","",_causek_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="S7" s="18" t="str">
+      <c r="S7" s="17" t="str">
         <f>IF(_causek_day_shift!B4="","",_causek_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="T7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!G4="","",_lianjaorb_day_shift!G4)</f>
-        <v/>
-      </c>
-      <c r="U7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!H4="","",_lianjaorb_day_shift!H4)</f>
-        <v/>
-      </c>
-      <c r="V7" s="18" t="str">
+      <c r="T7" s="17" t="str">
+        <f>IF(_actual_day_shift!C4="","",_actual_day_shift!C4)</f>
+        <v/>
+      </c>
+      <c r="U7" s="17" t="str">
+        <f>IF(_actual_day_shift!D4="","",_actual_day_shift!D4)</f>
+        <v/>
+      </c>
+      <c r="V7" s="17" t="str">
         <f>IF(_causek_day_shift!C4="","",_causek_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="W7" s="18" t="str">
+      <c r="W7" s="17" t="str">
         <f>IF(_causek_day_shift!D4="","",_causek_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="X7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!I4="","",_lianjaorb_day_shift!I4)</f>
-        <v/>
-      </c>
-      <c r="Y7" s="18" t="str">
+      <c r="X7" s="17" t="str">
+        <f>IF(_actual_day_shift!E4="","",_actual_day_shift!E4)</f>
+        <v/>
+      </c>
+      <c r="Y7" s="17" t="str">
         <f>IF(_causek_day_shift!E4="","",_causek_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="Z7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!J4="","",_lianjaorb_day_shift!J4)</f>
-        <v/>
-      </c>
-      <c r="AA7" s="18" t="str">
+      <c r="Z7" s="17" t="str">
+        <f>IF(_actual_day_shift!F4="","",_actual_day_shift!F4)</f>
+        <v/>
+      </c>
+      <c r="AA7" s="17" t="str">
         <f>IF(_causek_day_shift!F4="","",_causek_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="AB7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!K4="","",_lianjaorb_day_shift!K4)</f>
-        <v/>
-      </c>
-      <c r="AC7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!L4="","",_lianjaorb_day_shift!L4)</f>
-        <v/>
-      </c>
-      <c r="AD7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!M4="","",_lianjaorb_day_shift!M4)</f>
-        <v/>
-      </c>
-      <c r="AE7" s="18" t="str">
+      <c r="AB7" s="17" t="str">
+        <f>IF(_actual_day_shift!G4="","",_actual_day_shift!G4)</f>
+        <v/>
+      </c>
+      <c r="AC7" s="17" t="str">
+        <f>IF(_actual_day_shift!H4="","",_actual_day_shift!H4)</f>
+        <v/>
+      </c>
+      <c r="AD7" s="17" t="str">
+        <f>IF(_actual_day_shift!I4="","",_actual_day_shift!I4)</f>
+        <v/>
+      </c>
+      <c r="AE7" s="17" t="str">
         <f>IF(_kjjunzhi_day_shift!C4="","",_kjjunzhi_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!N4="","",_lianjaorb_day_shift!N4)</f>
-        <v/>
-      </c>
-      <c r="AH7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!O4="","",_lianjaorb_day_shift!O4)</f>
-        <v/>
-      </c>
-      <c r="AI7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!P4="","",_lianjaorb_day_shift!P4)</f>
-        <v/>
-      </c>
-      <c r="AJ7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!Q4="","",_lianjaorb_day_shift!Q4)</f>
-        <v/>
-      </c>
-      <c r="AK7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!R4="","",_lianjaorb_day_shift!R4)</f>
-        <v/>
-      </c>
-      <c r="AL7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!S4="","",_lianjaorb_day_shift!S4)</f>
-        <v/>
-      </c>
-      <c r="AM7" s="18" t="str">
-        <f>IF(_lianjaorb_day_shift!T4="","",_lianjaorb_day_shift!T4)</f>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17" t="str">
+        <f>IF(_actual_day_shift!J4="","",_actual_day_shift!J4)</f>
+        <v/>
+      </c>
+      <c r="AH7" s="17" t="str">
+        <f>IF(_actual_day_shift!K4="","",_actual_day_shift!K4)</f>
+        <v/>
+      </c>
+      <c r="AI7" s="17" t="str">
+        <f>IF(_actual_day_shift!L4="","",_actual_day_shift!L4)</f>
+        <v/>
+      </c>
+      <c r="AJ7" s="17" t="str">
+        <f>IF(_actual_day_shift!M4="","",_actual_day_shift!M4)</f>
+        <v/>
+      </c>
+      <c r="AK7" s="17" t="str">
+        <f>IF(_actual_day_shift!N4="","",_actual_day_shift!N4)</f>
+        <v/>
+      </c>
+      <c r="AL7" s="17" t="str">
+        <f>IF(_actual_day_shift!O4="","",_actual_day_shift!O4)</f>
+        <v/>
+      </c>
+      <c r="AM7" s="17" t="str">
+        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
       <c r="AN7" s="45" t="str">
-        <f>IF(_lianjaorb_day_shift!U4="","",_lianjaorb_day_shift!U4)</f>
+        <f>IF(_actual_day_shift!P4="","",_actual_day_shift!P4)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:40">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <f t="shared" ref="C8:O8" si="7">SUM(C5:C7)/3</f>
         <v>0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E8" s="21" t="e">
+      <c r="E8" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H8" s="21" t="e">
+      <c r="H8" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="21" t="e">
+      <c r="I8" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="21" t="e">
+      <c r="J8" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M8" s="21" t="e">
+      <c r="M8" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="21" t="e">
+      <c r="N8" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O8" s="21" t="e">
+      <c r="O8" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="46"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
     </row>
-    <row r="14" s="7" customFormat="1" ht="39.6" customHeight="1" spans="1:32">
-      <c r="A14" s="23" t="s">
+    <row r="14" s="6" customFormat="1" ht="39.6" customHeight="1" spans="1:32">
+      <c r="A14" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="E14" s="7" t="s">
+      <c r="B14" s="22"/>
+      <c r="E14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>17300</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>3350</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AF14" s="7" t="s">
+      <c r="AF14" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" ht="23.45" customHeight="1" spans="1:32">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="E15" s="3">
         <f>(C15*K15+D15*L15)/10^6</f>
         <v>0</v>
@@ -3131,40 +3175,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" ht="81" spans="1:32">
-      <c r="A16" s="23" t="s">
+    <row r="16" s="6" customFormat="1" ht="81" spans="1:32">
+      <c r="A16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="E16" s="7" t="str">
+      <c r="B16" s="22"/>
+      <c r="E16" s="6" t="str">
         <f t="shared" ref="E16:J16" si="8">_xlfn.FORMULATEXT(E15)</f>
         <v>=(C15*K15+D15*L15)/10^6</v>
       </c>
-      <c r="H16" s="7" t="str">
+      <c r="H16" s="6" t="str">
         <f t="shared" si="8"/>
         <v>=(F15*K15+G15*L15)/10^6</v>
       </c>
-      <c r="I16" s="7" t="str">
+      <c r="I16" s="6" t="str">
         <f t="shared" si="8"/>
         <v>=C15+F15</v>
       </c>
-      <c r="J16" s="7" t="str">
+      <c r="J16" s="6" t="str">
         <f t="shared" si="8"/>
         <v>=D15+G15</v>
       </c>
-      <c r="M16" s="7" t="str">
+      <c r="M16" s="6" t="str">
         <f t="shared" ref="M16:O16" si="9">_xlfn.FORMULATEXT(M15)</f>
         <v>=(E15+H15)/AH15*1000-31*(AL15-7)</v>
       </c>
-      <c r="N16" s="7" t="str">
+      <c r="N16" s="6" t="str">
         <f t="shared" si="9"/>
         <v>=(E15+H15)/AD15/AE15</v>
       </c>
-      <c r="O16" s="7" t="str">
+      <c r="O16" s="6" t="str">
         <f t="shared" si="9"/>
         <v>=I15/J15*100</v>
       </c>
-      <c r="AF16" s="7" t="str">
+      <c r="AF16" s="6" t="str">
         <f>_xlfn.FORMULATEXT(AF15)</f>
         <v>=AE15*AD15</v>
       </c>
@@ -3213,18 +3257,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:21">
+    <row r="1" ht="45" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -3236,57 +3280,6 @@
       </c>
       <c r="D1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +3325,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3364,6 +3357,95 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
@@ -11,18 +11,50 @@
     <sheet name="_lianjaorb_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_kjjunzhi_day_shift" sheetId="3" r:id="rId3"/>
     <sheet name="_causek_day_shift" sheetId="4" r:id="rId4"/>
-    <sheet name="_actual_day_shift" sheetId="6" r:id="rId5"/>
-    <sheet name="_analysis_day_shift" sheetId="7" r:id="rId6"/>
-    <sheet name="_metadata" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
-  <si>
-    <t>炼热工作业区生产统计表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年炼热工作业区</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月生产统计表</t>
+    </r>
   </si>
   <si>
     <t>6#焦炉</t>
@@ -418,62 +450,20 @@
   <si>
     <t>k2KReason</t>
   </si>
-  <si>
-    <t>NO1_FURNACE_K_AN</t>
-  </si>
-  <si>
-    <t>NO1_FURNACE_K_AVG</t>
-  </si>
-  <si>
-    <t>NO2_FURNACE_K_AN</t>
-  </si>
-  <si>
-    <t>NO2_FURNACE_K_AVG</t>
-  </si>
-  <si>
-    <t>PLAN_OUT_HOLES_NUMBER</t>
-  </si>
-  <si>
-    <t>ACTUAL_OUT_HOLES_NUMBER</t>
-  </si>
-  <si>
-    <t>AVERAGE_COAL_LOADING</t>
-  </si>
-  <si>
-    <t>COAL_LOADING_ALL</t>
-  </si>
-  <si>
-    <t>COKING_TIME_AVERAGE</t>
-  </si>
-  <si>
-    <t>COKING_TIME_LONGEST</t>
-  </si>
-  <si>
-    <t>COKING_TIME_SHORTEST</t>
-  </si>
-  <si>
-    <t>ENTERING_COAL_MOISTURE</t>
-  </si>
-  <si>
-    <t>COAL_LOADING_COEFFICIENT</t>
-  </si>
-  <si>
-    <t>KH-Y/Vdaf</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,8 +491,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -541,18 +537,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -571,9 +555,86 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -584,21 +645,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -606,31 +658,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,85 +697,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -735,6 +720,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,13 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,13 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,31 +821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,13 +839,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,43 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,18 +893,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -949,11 +934,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="1"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,6 +1022,36 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1037,52 +1067,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,15 +1087,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1122,6 +1098,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,8 +1128,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1168,19 +1155,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,10 +1166,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,141 +1178,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1346,6 +1322,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1355,43 +1334,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,46 +1379,43 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,28 +1424,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2176,242 +2146,234 @@
   <sheetPr/>
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AM5" sqref="AM5:AM7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5:AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="3" customWidth="1"/>
     <col min="3" max="12" width="6.125" style="3" customWidth="1"/>
     <col min="13" max="16" width="7.5" style="3" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="2:40">
-      <c r="B1" s="8" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="31" t="s">
+    <row r="1" s="3" customFormat="1" ht="21" spans="1:34">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
     </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:40">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+    <row r="2" s="3" customFormat="1" ht="25.5" customHeight="1" spans="1:40">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26" t="s">
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AB2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="23" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="40" t="s">
+      <c r="AH2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AM2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AN2" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="36" spans="1:40">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" s="3" customFormat="1" ht="36" spans="1:40">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="13" t="s">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AD3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="13" t="s">
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AK3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="43"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="42"/>
     </row>
-    <row r="4" s="5" customFormat="1" ht="56.25" spans="1:40">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" s="6" customFormat="1" ht="56.25" spans="1:40">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2442,10 +2404,10 @@
         <f t="shared" ref="J4:J7" si="3">D4+G4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="31" t="s">
         <v>47</v>
       </c>
       <c r="M4" s="4" t="e">
@@ -2466,10 +2428,10 @@
       <c r="Q4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="34" t="s">
         <v>51</v>
       </c>
       <c r="T4" s="4" t="s">
@@ -2478,22 +2440,22 @@
       <c r="U4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="34" t="s">
         <v>55</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="38" t="s">
+      <c r="Y4" s="37" t="s">
         <v>57</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="37" t="s">
         <v>59</v>
       </c>
       <c r="AB4" s="4" t="s">
@@ -2505,10 +2467,10 @@
       <c r="AD4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="39" t="s">
+      <c r="AE4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AF4" s="35" t="e">
+      <c r="AF4" s="34" t="e">
         <f>AE4*AD4</f>
         <v>#VALUE!</v>
       </c>
@@ -2533,615 +2495,619 @@
       <c r="AM4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AN4" s="44" t="s">
+      <c r="AN4" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:40">
-      <c r="B5" s="16" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:40">
+      <c r="A5" s="8"/>
+      <c r="B5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="17" t="str">
+      <c r="C5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!A2="","",_lianjaorb_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D5" s="17" t="str">
+      <c r="D5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!B2="","",_lianjaorb_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E5" s="17" t="e">
+      <c r="E5" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F5" s="17" t="str">
+      <c r="F5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!C2="","",_lianjaorb_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="G5" s="17" t="str">
+      <c r="G5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!D2="","",_lianjaorb_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="H5" s="17" t="e">
+      <c r="H5" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="17" t="e">
+      <c r="I5" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="17" t="e">
+      <c r="J5" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="17" t="str">
+      <c r="K5" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!A2="","",_kjjunzhi_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="L5" s="17" t="str">
+      <c r="L5" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!B2="","",_kjjunzhi_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="M5" s="17" t="e">
+      <c r="M5" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="17" t="e">
+      <c r="N5" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="17" t="e">
+      <c r="O5" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P5" s="17" t="str">
-        <f>IF(_actual_day_shift!A2="","",_actual_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="Q5" s="17" t="str">
-        <f>IF(_actual_day_shift!B2="","",_actual_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="R5" s="17" t="str">
+      <c r="P5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!E2="","",_lianjaorb_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!F2="","",_lianjaorb_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="R5" s="18" t="str">
         <f>IF(_causek_day_shift!A2="","",_causek_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="S5" s="17" t="str">
+      <c r="S5" s="18" t="str">
         <f>IF(_causek_day_shift!B2="","",_causek_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="T5" s="17" t="str">
-        <f>IF(_actual_day_shift!C2="","",_actual_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="U5" s="17" t="str">
-        <f>IF(_actual_day_shift!D2="","",_actual_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="V5" s="17" t="str">
+      <c r="T5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!G2="","",_lianjaorb_day_shift!G2)</f>
+        <v/>
+      </c>
+      <c r="U5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!H2="","",_lianjaorb_day_shift!H2)</f>
+        <v/>
+      </c>
+      <c r="V5" s="18" t="str">
         <f>IF(_causek_day_shift!C2="","",_causek_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="W5" s="17" t="str">
+      <c r="W5" s="18" t="str">
         <f>IF(_causek_day_shift!D2="","",_causek_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="X5" s="17" t="str">
-        <f>IF(_actual_day_shift!E2="","",_actual_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="Y5" s="17" t="str">
+      <c r="X5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!I2="","",_lianjaorb_day_shift!I2)</f>
+        <v/>
+      </c>
+      <c r="Y5" s="18" t="str">
         <f>IF(_causek_day_shift!E2="","",_causek_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="Z5" s="17" t="str">
-        <f>IF(_actual_day_shift!F2="","",_actual_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="AA5" s="17" t="str">
+      <c r="Z5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!J2="","",_lianjaorb_day_shift!J2)</f>
+        <v/>
+      </c>
+      <c r="AA5" s="18" t="str">
         <f>IF(_causek_day_shift!F2="","",_causek_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="AB5" s="17" t="str">
-        <f>IF(_actual_day_shift!G2="","",_actual_day_shift!G2)</f>
-        <v/>
-      </c>
-      <c r="AC5" s="17" t="str">
-        <f>IF(_actual_day_shift!H2="","",_actual_day_shift!H2)</f>
-        <v/>
-      </c>
-      <c r="AD5" s="17" t="str">
-        <f>IF(_actual_day_shift!I2="","",_actual_day_shift!I2)</f>
-        <v/>
-      </c>
-      <c r="AE5" s="17" t="str">
+      <c r="AB5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!K2="","",_lianjaorb_day_shift!K2)</f>
+        <v/>
+      </c>
+      <c r="AC5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!L2="","",_lianjaorb_day_shift!L2)</f>
+        <v/>
+      </c>
+      <c r="AD5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!M2="","",_lianjaorb_day_shift!M2)</f>
+        <v/>
+      </c>
+      <c r="AE5" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!C2="","",_kjjunzhi_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17" t="str">
-        <f>IF(_actual_day_shift!J2="","",_actual_day_shift!J2)</f>
-        <v/>
-      </c>
-      <c r="AH5" s="17" t="str">
-        <f>IF(_actual_day_shift!K2="","",_actual_day_shift!K2)</f>
-        <v/>
-      </c>
-      <c r="AI5" s="17" t="str">
-        <f>IF(_actual_day_shift!L2="","",_actual_day_shift!L2)</f>
-        <v/>
-      </c>
-      <c r="AJ5" s="17" t="str">
-        <f>IF(_actual_day_shift!M2="","",_actual_day_shift!M2)</f>
-        <v/>
-      </c>
-      <c r="AK5" s="17" t="str">
-        <f>IF(_actual_day_shift!N2="","",_actual_day_shift!N2)</f>
-        <v/>
-      </c>
-      <c r="AL5" s="17" t="str">
-        <f>IF(_actual_day_shift!O2="","",_actual_day_shift!O2)</f>
-        <v/>
-      </c>
-      <c r="AM5" s="17" t="str">
-        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="AN5" s="45" t="str">
-        <f>IF(_actual_day_shift!P2="","",_actual_day_shift!P2)</f>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!N2="","",_lianjaorb_day_shift!N2)</f>
+        <v/>
+      </c>
+      <c r="AH5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!O2="","",_lianjaorb_day_shift!O2)</f>
+        <v/>
+      </c>
+      <c r="AI5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!P2="","",_lianjaorb_day_shift!P2)</f>
+        <v/>
+      </c>
+      <c r="AJ5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!Q2="","",_lianjaorb_day_shift!Q2)</f>
+        <v/>
+      </c>
+      <c r="AK5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!R2="","",_lianjaorb_day_shift!R2)</f>
+        <v/>
+      </c>
+      <c r="AL5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!S2="","",_lianjaorb_day_shift!S2)</f>
+        <v/>
+      </c>
+      <c r="AM5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!T2="","",_lianjaorb_day_shift!T2)</f>
+        <v/>
+      </c>
+      <c r="AN5" s="43" t="str">
+        <f>IF(_lianjaorb_day_shift!U2="","",_lianjaorb_day_shift!U2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:40">
-      <c r="B6" s="16" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:40">
+      <c r="A6" s="8"/>
+      <c r="B6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!A3="","",_lianjaorb_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="D6" s="17" t="str">
+      <c r="D6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!B3="","",_lianjaorb_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="E6" s="17" t="e">
+      <c r="E6" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="17" t="str">
+      <c r="F6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!C3="","",_lianjaorb_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="G6" s="17" t="str">
+      <c r="G6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!D3="","",_lianjaorb_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="H6" s="17" t="e">
+      <c r="H6" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="17" t="e">
+      <c r="I6" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="17" t="e">
+      <c r="J6" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="17" t="str">
+      <c r="K6" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!A3="","",_kjjunzhi_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="L6" s="17" t="str">
+      <c r="L6" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!B3="","",_kjjunzhi_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="M6" s="17" t="e">
+      <c r="M6" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N6" s="17" t="e">
+      <c r="N6" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O6" s="17" t="e">
+      <c r="O6" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P6" s="17" t="str">
-        <f>IF(_actual_day_shift!A3="","",_actual_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="Q6" s="17" t="str">
-        <f>IF(_actual_day_shift!B3="","",_actual_day_shift!B3)</f>
-        <v/>
-      </c>
-      <c r="R6" s="17" t="str">
+      <c r="P6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!E3="","",_lianjaorb_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!F3="","",_lianjaorb_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="R6" s="18" t="str">
         <f>IF(_causek_day_shift!A3="","",_causek_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="S6" s="17" t="str">
+      <c r="S6" s="18" t="str">
         <f>IF(_causek_day_shift!B3="","",_causek_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="T6" s="17" t="str">
-        <f>IF(_actual_day_shift!C3="","",_actual_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="U6" s="17" t="str">
-        <f>IF(_actual_day_shift!D3="","",_actual_day_shift!D3)</f>
-        <v/>
-      </c>
-      <c r="V6" s="17" t="str">
+      <c r="T6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!G3="","",_lianjaorb_day_shift!G3)</f>
+        <v/>
+      </c>
+      <c r="U6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!H3="","",_lianjaorb_day_shift!H3)</f>
+        <v/>
+      </c>
+      <c r="V6" s="18" t="str">
         <f>IF(_causek_day_shift!C3="","",_causek_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="W6" s="17" t="str">
+      <c r="W6" s="18" t="str">
         <f>IF(_causek_day_shift!D3="","",_causek_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="X6" s="17" t="str">
-        <f>IF(_actual_day_shift!E3="","",_actual_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="Y6" s="17" t="str">
+      <c r="X6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!I3="","",_lianjaorb_day_shift!I3)</f>
+        <v/>
+      </c>
+      <c r="Y6" s="18" t="str">
         <f>IF(_causek_day_shift!E3="","",_causek_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="Z6" s="17" t="str">
-        <f>IF(_actual_day_shift!F3="","",_actual_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="AA6" s="17" t="str">
+      <c r="Z6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!J3="","",_lianjaorb_day_shift!J3)</f>
+        <v/>
+      </c>
+      <c r="AA6" s="18" t="str">
         <f>IF(_causek_day_shift!F3="","",_causek_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="AB6" s="17" t="str">
-        <f>IF(_actual_day_shift!G3="","",_actual_day_shift!G3)</f>
-        <v/>
-      </c>
-      <c r="AC6" s="17" t="str">
-        <f>IF(_actual_day_shift!H3="","",_actual_day_shift!H3)</f>
-        <v/>
-      </c>
-      <c r="AD6" s="17" t="str">
-        <f>IF(_actual_day_shift!I3="","",_actual_day_shift!I3)</f>
-        <v/>
-      </c>
-      <c r="AE6" s="17" t="str">
+      <c r="AB6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!K3="","",_lianjaorb_day_shift!K3)</f>
+        <v/>
+      </c>
+      <c r="AC6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!L3="","",_lianjaorb_day_shift!L3)</f>
+        <v/>
+      </c>
+      <c r="AD6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!M3="","",_lianjaorb_day_shift!M3)</f>
+        <v/>
+      </c>
+      <c r="AE6" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!C3="","",_kjjunzhi_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17" t="str">
-        <f>IF(_actual_day_shift!J3="","",_actual_day_shift!J3)</f>
-        <v/>
-      </c>
-      <c r="AH6" s="17" t="str">
-        <f>IF(_actual_day_shift!K3="","",_actual_day_shift!K3)</f>
-        <v/>
-      </c>
-      <c r="AI6" s="17" t="str">
-        <f>IF(_actual_day_shift!L3="","",_actual_day_shift!L3)</f>
-        <v/>
-      </c>
-      <c r="AJ6" s="17" t="str">
-        <f>IF(_actual_day_shift!M3="","",_actual_day_shift!M3)</f>
-        <v/>
-      </c>
-      <c r="AK6" s="17" t="str">
-        <f>IF(_actual_day_shift!N3="","",_actual_day_shift!N3)</f>
-        <v/>
-      </c>
-      <c r="AL6" s="17" t="str">
-        <f>IF(_actual_day_shift!O3="","",_actual_day_shift!O3)</f>
-        <v/>
-      </c>
-      <c r="AM6" s="17" t="str">
-        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="AN6" s="45" t="str">
-        <f>IF(_actual_day_shift!P3="","",_actual_day_shift!P3)</f>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!N3="","",_lianjaorb_day_shift!N3)</f>
+        <v/>
+      </c>
+      <c r="AH6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!O3="","",_lianjaorb_day_shift!O3)</f>
+        <v/>
+      </c>
+      <c r="AI6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!P3="","",_lianjaorb_day_shift!P3)</f>
+        <v/>
+      </c>
+      <c r="AJ6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!Q3="","",_lianjaorb_day_shift!Q3)</f>
+        <v/>
+      </c>
+      <c r="AK6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!R3="","",_lianjaorb_day_shift!R3)</f>
+        <v/>
+      </c>
+      <c r="AL6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!S3="","",_lianjaorb_day_shift!S3)</f>
+        <v/>
+      </c>
+      <c r="AM6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!T3="","",_lianjaorb_day_shift!T3)</f>
+        <v/>
+      </c>
+      <c r="AN6" s="43" t="str">
+        <f>IF(_lianjaorb_day_shift!U3="","",_lianjaorb_day_shift!U3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:40">
-      <c r="B7" s="16" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:40">
+      <c r="A7" s="8"/>
+      <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!A4="","",_lianjaorb_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!B4="","",_lianjaorb_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="17" t="e">
+      <c r="E7" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="18" t="str">
+      <c r="F7" s="19" t="str">
         <f>IF(_lianjaorb_day_shift!C4="","",_lianjaorb_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!D4="","",_lianjaorb_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="H7" s="17" t="e">
+      <c r="H7" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I7" s="17" t="e">
+      <c r="I7" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="17" t="e">
+      <c r="J7" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="17" t="str">
+      <c r="K7" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!A4="","",_kjjunzhi_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="L7" s="17" t="str">
+      <c r="L7" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!B4="","",_kjjunzhi_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="M7" s="17" t="e">
+      <c r="M7" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="17" t="e">
+      <c r="N7" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O7" s="17" t="e">
+      <c r="O7" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P7" s="17" t="str">
-        <f>IF(_actual_day_shift!A4="","",_actual_day_shift!A4)</f>
-        <v/>
-      </c>
-      <c r="Q7" s="17" t="str">
-        <f>IF(_actual_day_shift!B4="","",_actual_day_shift!B4)</f>
-        <v/>
-      </c>
-      <c r="R7" s="17" t="str">
+      <c r="P7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!E4="","",_lianjaorb_day_shift!E4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!F4="","",_lianjaorb_day_shift!F4)</f>
+        <v/>
+      </c>
+      <c r="R7" s="18" t="str">
         <f>IF(_causek_day_shift!A4="","",_causek_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="S7" s="17" t="str">
+      <c r="S7" s="18" t="str">
         <f>IF(_causek_day_shift!B4="","",_causek_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="T7" s="17" t="str">
-        <f>IF(_actual_day_shift!C4="","",_actual_day_shift!C4)</f>
-        <v/>
-      </c>
-      <c r="U7" s="17" t="str">
-        <f>IF(_actual_day_shift!D4="","",_actual_day_shift!D4)</f>
-        <v/>
-      </c>
-      <c r="V7" s="17" t="str">
+      <c r="T7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!G4="","",_lianjaorb_day_shift!G4)</f>
+        <v/>
+      </c>
+      <c r="U7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!H4="","",_lianjaorb_day_shift!H4)</f>
+        <v/>
+      </c>
+      <c r="V7" s="18" t="str">
         <f>IF(_causek_day_shift!C4="","",_causek_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="W7" s="17" t="str">
+      <c r="W7" s="18" t="str">
         <f>IF(_causek_day_shift!D4="","",_causek_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="X7" s="17" t="str">
-        <f>IF(_actual_day_shift!E4="","",_actual_day_shift!E4)</f>
-        <v/>
-      </c>
-      <c r="Y7" s="17" t="str">
+      <c r="X7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!I4="","",_lianjaorb_day_shift!I4)</f>
+        <v/>
+      </c>
+      <c r="Y7" s="18" t="str">
         <f>IF(_causek_day_shift!E4="","",_causek_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="Z7" s="17" t="str">
-        <f>IF(_actual_day_shift!F4="","",_actual_day_shift!F4)</f>
-        <v/>
-      </c>
-      <c r="AA7" s="17" t="str">
+      <c r="Z7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!J4="","",_lianjaorb_day_shift!J4)</f>
+        <v/>
+      </c>
+      <c r="AA7" s="18" t="str">
         <f>IF(_causek_day_shift!F4="","",_causek_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="AB7" s="17" t="str">
-        <f>IF(_actual_day_shift!G4="","",_actual_day_shift!G4)</f>
-        <v/>
-      </c>
-      <c r="AC7" s="17" t="str">
-        <f>IF(_actual_day_shift!H4="","",_actual_day_shift!H4)</f>
-        <v/>
-      </c>
-      <c r="AD7" s="17" t="str">
-        <f>IF(_actual_day_shift!I4="","",_actual_day_shift!I4)</f>
-        <v/>
-      </c>
-      <c r="AE7" s="17" t="str">
+      <c r="AB7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!K4="","",_lianjaorb_day_shift!K4)</f>
+        <v/>
+      </c>
+      <c r="AC7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!L4="","",_lianjaorb_day_shift!L4)</f>
+        <v/>
+      </c>
+      <c r="AD7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!M4="","",_lianjaorb_day_shift!M4)</f>
+        <v/>
+      </c>
+      <c r="AE7" s="18" t="str">
         <f>IF(_kjjunzhi_day_shift!C4="","",_kjjunzhi_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17" t="str">
-        <f>IF(_actual_day_shift!J4="","",_actual_day_shift!J4)</f>
-        <v/>
-      </c>
-      <c r="AH7" s="17" t="str">
-        <f>IF(_actual_day_shift!K4="","",_actual_day_shift!K4)</f>
-        <v/>
-      </c>
-      <c r="AI7" s="17" t="str">
-        <f>IF(_actual_day_shift!L4="","",_actual_day_shift!L4)</f>
-        <v/>
-      </c>
-      <c r="AJ7" s="17" t="str">
-        <f>IF(_actual_day_shift!M4="","",_actual_day_shift!M4)</f>
-        <v/>
-      </c>
-      <c r="AK7" s="17" t="str">
-        <f>IF(_actual_day_shift!N4="","",_actual_day_shift!N4)</f>
-        <v/>
-      </c>
-      <c r="AL7" s="17" t="str">
-        <f>IF(_actual_day_shift!O4="","",_actual_day_shift!O4)</f>
-        <v/>
-      </c>
-      <c r="AM7" s="17" t="str">
-        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
-        <v/>
-      </c>
-      <c r="AN7" s="45" t="str">
-        <f>IF(_actual_day_shift!P4="","",_actual_day_shift!P4)</f>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!N4="","",_lianjaorb_day_shift!N4)</f>
+        <v/>
+      </c>
+      <c r="AH7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!O4="","",_lianjaorb_day_shift!O4)</f>
+        <v/>
+      </c>
+      <c r="AI7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!P4="","",_lianjaorb_day_shift!P4)</f>
+        <v/>
+      </c>
+      <c r="AJ7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!Q4="","",_lianjaorb_day_shift!Q4)</f>
+        <v/>
+      </c>
+      <c r="AK7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!R4="","",_lianjaorb_day_shift!R4)</f>
+        <v/>
+      </c>
+      <c r="AL7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!S4="","",_lianjaorb_day_shift!S4)</f>
+        <v/>
+      </c>
+      <c r="AM7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!T4="","",_lianjaorb_day_shift!T4)</f>
+        <v/>
+      </c>
+      <c r="AN7" s="43" t="str">
+        <f>IF(_lianjaorb_day_shift!U4="","",_lianjaorb_day_shift!U4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:40">
-      <c r="B8" s="19" t="s">
+    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A8" s="8"/>
+      <c r="B8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="21">
         <f t="shared" ref="C8:O8" si="7">SUM(C5:C7)/3</f>
         <v>0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E8" s="20" t="e">
+      <c r="E8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="20" t="e">
+      <c r="I8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="20" t="e">
+      <c r="J8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M8" s="20" t="e">
+      <c r="M8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="20" t="e">
+      <c r="N8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O8" s="20" t="e">
+      <c r="O8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="46"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="44"/>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+    <row r="9" s="3" customFormat="1" spans="1:2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+    <row r="10" s="3" customFormat="1" spans="1:2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+    <row r="11" s="3" customFormat="1" spans="1:2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+    <row r="12" s="3" customFormat="1" spans="1:2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+    <row r="13" s="3" customFormat="1" spans="1:2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
     </row>
-    <row r="14" s="6" customFormat="1" ht="39.6" customHeight="1" spans="1:32">
-      <c r="A14" s="22" t="s">
+    <row r="14" s="7" customFormat="1" ht="39.6" customHeight="1" spans="1:32">
+      <c r="A14" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="23"/>
+      <c r="E14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <v>17300</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <v>3350</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AF14" s="6" t="s">
+      <c r="AF14" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" ht="23.45" customHeight="1" spans="1:32">
-      <c r="A15" s="22" t="s">
+    <row r="15" s="3" customFormat="1" ht="23.45" customHeight="1" spans="1:32">
+      <c r="A15" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="E15" s="3">
         <f>(C15*K15+D15*L15)/10^6</f>
         <v>0</v>
@@ -3175,48 +3141,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="81" spans="1:32">
-      <c r="A16" s="22" t="s">
+    <row r="16" s="7" customFormat="1" ht="81" spans="1:32">
+      <c r="A16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="E16" s="6" t="str">
+      <c r="B16" s="23"/>
+      <c r="E16" s="7" t="str">
         <f t="shared" ref="E16:J16" si="8">_xlfn.FORMULATEXT(E15)</f>
         <v>=(C15*K15+D15*L15)/10^6</v>
       </c>
-      <c r="H16" s="6" t="str">
+      <c r="H16" s="7" t="str">
         <f t="shared" si="8"/>
         <v>=(F15*K15+G15*L15)/10^6</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="I16" s="7" t="str">
         <f t="shared" si="8"/>
         <v>=C15+F15</v>
       </c>
-      <c r="J16" s="6" t="str">
+      <c r="J16" s="7" t="str">
         <f t="shared" si="8"/>
         <v>=D15+G15</v>
       </c>
-      <c r="M16" s="6" t="str">
+      <c r="M16" s="7" t="str">
         <f t="shared" ref="M16:O16" si="9">_xlfn.FORMULATEXT(M15)</f>
         <v>=(E15+H15)/AH15*1000-31*(AL15-7)</v>
       </c>
-      <c r="N16" s="6" t="str">
+      <c r="N16" s="7" t="str">
         <f t="shared" si="9"/>
         <v>=(E15+H15)/AD15/AE15</v>
       </c>
-      <c r="O16" s="6" t="str">
+      <c r="O16" s="7" t="str">
         <f t="shared" si="9"/>
         <v>=I15/J15*100</v>
       </c>
-      <c r="AF16" s="6" t="str">
+      <c r="AF16" s="7" t="str">
         <f>_xlfn.FORMULATEXT(AF15)</f>
         <v>=AE15*AD15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="T1:AN1"/>
+  <mergeCells count="26">
+    <mergeCell ref="B1:AH1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -3257,18 +3222,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:4">
+    <row r="1" s="3" customFormat="1" ht="45" spans="1:21">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -3280,6 +3245,57 @@
       </c>
       <c r="D1" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +3341,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3354,109 +3370,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>